--- a/src/main/resources/templates/expense-claim.xlsx
+++ b/src/main/resources/templates/expense-claim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/1000bang/vacation/api/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F311E65-2830-FD43-930A-8BF27656DEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0260A30-B67E-5145-A639-19E35D73772A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1033,8 +1033,8 @@
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1490391</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>504825</xdr:rowOff>
     </xdr:to>
@@ -1397,7 +1397,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="29.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
